--- a/imageConds.xlsx
+++ b/imageConds.xlsx
@@ -27,7 +27,7 @@
     <t>imageSetName</t>
   </si>
   <si>
-    <t>all</t>
+    <t>car</t>
   </si>
 </sst>
 </file>
@@ -292,7 +292,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
